--- a/biology/Botanique/Gesse_littorale/Gesse_littorale.xlsx
+++ b/biology/Botanique/Gesse_littorale/Gesse_littorale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus littoralis est une espèce de plante herbacée de la famille des Fabaceae.
 C'est une espèce originaire d'Amérique du Nord. Elle fait partie du genre Lathyrus comme le pois de senteur.
